--- a/FactoryClient/FactoryClient/bin/Debug/精緻化報表.xlsx
+++ b/FactoryClient/FactoryClient/bin/Debug/精緻化報表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20356"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69256A10-EE79-4F01-9676-A7CD136CDC91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26553065-8658-4A66-8E0B-5E6A8F380DC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>點單號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,6 +28,105 @@
   </si>
   <si>
     <t>總價</t>
+  </si>
+  <si>
+    <t>冬粉</t>
+  </si>
+  <si>
+    <t>冬粉(大)</t>
+  </si>
+  <si>
+    <t>烏龍麵</t>
+  </si>
+  <si>
+    <t>烏龍麵(大)</t>
+  </si>
+  <si>
+    <t>鍋燒麵</t>
+  </si>
+  <si>
+    <t>雞絲麵</t>
+  </si>
+  <si>
+    <t>肉片(1份)</t>
+  </si>
+  <si>
+    <t>貢丸(4顆)</t>
+  </si>
+  <si>
+    <t>竹笛(2顆)</t>
+  </si>
+  <si>
+    <t>黃金魚蛋(2顆)</t>
+  </si>
+  <si>
+    <t>鱈魚丸(2顆)</t>
+  </si>
+  <si>
+    <t>魚豆腐(2顆)</t>
+  </si>
+  <si>
+    <t>起司丸(2顆)</t>
+  </si>
+  <si>
+    <t>魚卵捲(3顆)</t>
+  </si>
+  <si>
+    <t>鳥蛋(3顆)</t>
+  </si>
+  <si>
+    <t>鑫鑫腸(一份)</t>
+  </si>
+  <si>
+    <t>魚餃(一份)</t>
+  </si>
+  <si>
+    <t>餛飩(一份)</t>
+  </si>
+  <si>
+    <t>黑輪(一份)</t>
+  </si>
+  <si>
+    <t>豬血糕(一份)</t>
+  </si>
+  <si>
+    <t>百頁(一份)</t>
+  </si>
+  <si>
+    <t>油豆腐(一份)</t>
+  </si>
+  <si>
+    <t>豆皮(一份)</t>
+  </si>
+  <si>
+    <t>甜不辣(一份)</t>
+  </si>
+  <si>
+    <t>年糕(一份)</t>
+  </si>
+  <si>
+    <t>滷蛋(一份)</t>
+  </si>
+  <si>
+    <t>菜頭(一份)</t>
+  </si>
+  <si>
+    <t>馬鈴薯(一份)</t>
+  </si>
+  <si>
+    <t>金針菇(一份)</t>
+  </si>
+  <si>
+    <t>豆芽菜(一份)</t>
+  </si>
+  <si>
+    <t>杏鮑菇(一份)</t>
+  </si>
+  <si>
+    <t>玉米筍(一份)</t>
+  </si>
+  <si>
+    <t>綜合肉羹麵</t>
   </si>
 </sst>
 </file>
@@ -38,13 +137,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -85,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -93,9 +192,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -130,7 +230,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -450,20 +550,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
     <col min="3" max="3" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="92.25" customHeight="1">
+    <row r="1" spans="1:37" s="2" customFormat="1" ht="92.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,6 +575,133 @@
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>30904</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2">
+        <v>5487580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>30904</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>5487580</v>
       </c>
     </row>
   </sheetData>
